--- a/Gesture UI Test Plan.xlsx
+++ b/Gesture UI Test Plan.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://galwaymayoinstitute-my.sharepoint.com/personal/g00344474_gmit_ie/Documents/Fourth Year/Gesture Based UI/GestureBasedUI-Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_ac9\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98BF48A0-DF2F-40AA-9AE8-A7B802D1E5BB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADDD78BA-1649-4C05-BCF1-E47628D64CD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,12 +30,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
   <si>
     <t>Purpose:</t>
   </si>
   <si>
-    <t xml:space="preserve">This set of tests is intended to check functionality of the game and also functionality of Microsoft Kinect and </t>
+    <t>This set of tests is intended to check functionality of the game and also functionality of Microsoft Kinect Camera and Microphone.</t>
   </si>
   <si>
     <t>In App Game Play</t>
@@ -93,10 +93,13 @@
 The title is displayed across the top of the screen</t>
   </si>
   <si>
+    <t>Background image displaying correctly and title at the top of the screen.</t>
+  </si>
+  <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>TC.003</t>
+    <t>TC.002</t>
   </si>
   <si>
     <t>Play Button</t>
@@ -112,7 +115,10 @@
     <t>The speech recognition will accept only certain words to begin the game</t>
   </si>
   <si>
-    <t>TC.004</t>
+    <t>Speech only accepting keywords</t>
+  </si>
+  <si>
+    <t>TC.003</t>
   </si>
   <si>
     <t>1. Launch Game
@@ -125,7 +131,10 @@
     <t>The user should be able to play the game by clicking on the Play Button</t>
   </si>
   <si>
-    <t>TC.005</t>
+    <t>Game play starts after clicking play</t>
+  </si>
+  <si>
+    <t>TC.004</t>
   </si>
   <si>
     <t>Kinect Camera</t>
@@ -141,7 +150,10 @@
     <t>Kinect Camera picks up player</t>
   </si>
   <si>
-    <t>TC.006</t>
+    <t>Player detected through kinect camera</t>
+  </si>
+  <si>
+    <t>TC.005</t>
   </si>
   <si>
     <t>Movement of spaceman</t>
@@ -157,7 +169,10 @@
     <t>When the player moves left, the spaceman moves left from Kinect input</t>
   </si>
   <si>
-    <t>TC.007</t>
+    <t>Spaceman moves left when player moves left</t>
+  </si>
+  <si>
+    <t>TC.006</t>
   </si>
   <si>
     <t>1. Launch App
@@ -170,19 +185,46 @@
     <t>When the player moves right, the spaceman moves right from Kinect input</t>
   </si>
   <si>
+    <t>Spaceman moves right when player moves right</t>
+  </si>
+  <si>
+    <t>TC.007</t>
+  </si>
+  <si>
+    <t>Space ships fall downwards</t>
+  </si>
+  <si>
+    <t>1. Launch Game
+2. Test out Game play</t>
+  </si>
+  <si>
+    <t>Space ships falling downwards when game has started</t>
+  </si>
+  <si>
+    <t>The space ships should fall downwards automatically when the game starts</t>
+  </si>
+  <si>
+    <t>Space ships fall when game starts</t>
+  </si>
+  <si>
     <t>TC.008</t>
   </si>
   <si>
-    <t>Asteroids fall downwards</t>
-  </si>
-  <si>
-    <t>1. Launch Game</t>
-  </si>
-  <si>
-    <t>Asteroids falling downwards when game has started</t>
-  </si>
-  <si>
-    <t>The asteroids should fall downwards automatically when the game starts</t>
+    <t>Aliens fall downwards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Launch Game
+2. Test out Game play
+</t>
+  </si>
+  <si>
+    <t>Aliens falling downwards during game play</t>
+  </si>
+  <si>
+    <t>The Aliens should fall downwards automatically after a certain amount of time</t>
+  </si>
+  <si>
+    <t>Aliens start falling after 60 seconds.</t>
   </si>
   <si>
     <t>TC.009</t>
@@ -199,14 +241,20 @@
     <t>Game over</t>
   </si>
   <si>
-    <t xml:space="preserve">The game should be over if an asteroid hits the player three times
+    <t xml:space="preserve">The game should be over if an enemy hits the player three times
 </t>
   </si>
   <si>
+    <t>The game will end once the player is hit by an enemy three times</t>
+  </si>
+  <si>
     <t>TC.010</t>
   </si>
   <si>
     <t>The player can use voice recognition to restart or quit the game from here</t>
+  </si>
+  <si>
+    <t>The player can use speech to restart, or quit the game</t>
   </si>
   <si>
     <t>TC.011</t>
@@ -217,20 +265,23 @@
   <si>
     <t>1. Launch Game
 2. Test out the Game
-3. Level 2</t>
+3. Play until reaching Level 2</t>
   </si>
   <si>
     <t>After 120 seconds of player surviving, they will progress to level 2</t>
   </si>
   <si>
     <t>The player will progress to level 2 once they can live for over 120 seconds</t>
+  </si>
+  <si>
+    <t>The player moves to level 2 after surviving for 120 seconds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,7 +498,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="27">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -926,26 +998,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="19.40625" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" customWidth="1"/>
-    <col min="4" max="4" width="25.86328125" customWidth="1"/>
-    <col min="5" max="5" width="14.86328125" customWidth="1"/>
-    <col min="6" max="6" width="22.86328125" customWidth="1"/>
-    <col min="7" max="7" width="18.40625" customWidth="1"/>
-    <col min="8" max="8" width="19.1328125" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="10.86328125" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:10" ht="78" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
@@ -961,7 +1033,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="20" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="2" spans="1:10" ht="20.25" thickBot="1">
       <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
@@ -975,7 +1047,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" ht="25.5" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:10" ht="38.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -1007,7 +1079,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:10" ht="105">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -1032,12 +1104,14 @@
       <c r="H4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="10"/>
+      <c r="I4" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="J4" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:10" ht="90">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -1045,29 +1119,31 @@
         <v>1</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="10"/>
+        <v>25</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="J5" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="59" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:10" ht="60">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -1075,29 +1151,31 @@
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="J6" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:10" ht="75">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -1105,29 +1183,31 @@
         <v>1</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="J7" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:10" ht="90">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -1135,29 +1215,31 @@
         <v>1</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="J8" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:10" ht="90">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -1165,29 +1247,31 @@
         <v>1</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>35</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="J9" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="59" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:10" ht="75">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -1195,29 +1279,31 @@
         <v>1</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="10"/>
+        <v>53</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="J10" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:10" ht="75">
       <c r="A11" s="8">
         <v>8</v>
       </c>
@@ -1225,29 +1311,31 @@
         <v>1</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="J11" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="59" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:10" ht="120">
       <c r="A12" s="8">
         <v>9</v>
       </c>
@@ -1255,29 +1343,31 @@
         <v>1</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="10"/>
+        <v>65</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="J12" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="59" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:10" ht="90">
       <c r="A13" s="8">
         <v>10</v>
       </c>
@@ -1285,28 +1375,65 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" s="10"/>
+        <v>68</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>69</v>
+      </c>
       <c r="J13" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
+    <row r="14" spans="1:10" ht="105">
+      <c r="A14" s="8">
+        <v>11</v>
+      </c>
+      <c r="B14" s="9">
+        <v>1</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15"/>
+    <row r="16" spans="1:10" ht="15"/>
+    <row r="17" ht="15"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:E1"/>
@@ -1314,369 +1441,104 @@
     <mergeCell ref="E2:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="J1:J2 J4:J7">
-    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="26" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="27" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="Invalid Test">
+      <formula>NOT(ISERROR(SEARCH("Invalid Test",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Invalid Test">
-      <formula>NOT(ISERROR(SEARCH("Invalid Test",J10)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Invalid Test",J12)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",J10)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",J12)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",J10)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pass",J12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Invalid Test">
+      <formula>NOT(ISERROR(SEARCH("Invalid Test",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Invalid Test">
+      <formula>NOT(ISERROR(SEARCH("Invalid Test",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Invalid Test">
-      <formula>NOT(ISERROR(SEARCH("Invalid Test",J12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",J12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",J12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Invalid Test">
-      <formula>NOT(ISERROR(SEARCH("Invalid Test",J13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",J13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",J13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B5AD048A0BBF2C448C934EEF49753436" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="64771dbca1ab6f09b7122cb787cb1ab4">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="112c7e96-3675-4162-94bd-d5cbb4681c6c" xmlns:ns4="aa346678-56a6-456f-9a38-432177ef9c3a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="934fcff59c502ab039c5fc8e1de90554" ns3:_="" ns4:_="">
-    <xsd:import namespace="112c7e96-3675-4162-94bd-d5cbb4681c6c"/>
-    <xsd:import namespace="aa346678-56a6-456f-9a38-432177ef9c3a"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns3:SharingHintHash" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceKeyPoints" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="112c7e96-3675-4162-94bd-d5cbb4681c6c" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:description="" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="SharingHintHash" ma:index="10" nillable="true" ma:displayName="Sharing Hint Hash" ma:description="" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="aa346678-56a6-456f-9a38-432177ef9c3a" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="13" nillable="true" ma:displayName="MediaServiceDateTaken" ma:description="" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoTags" ma:description="" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="18" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="19" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9154C7F4-EF6B-455F-88A2-B8B450085517}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="112c7e96-3675-4162-94bd-d5cbb4681c6c"/>
-    <ds:schemaRef ds:uri="aa346678-56a6-456f-9a38-432177ef9c3a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEDE64A6-7C60-4A53-AB58-637DE4DA371B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B9784C8-4497-4598-A123-CC29B113037D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="112c7e96-3675-4162-94bd-d5cbb4681c6c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="aa346678-56a6-456f-9a38-432177ef9c3a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>